--- a/jpcore-r4/feature/swg3-Practitionerの麻薬施用者番号をまとめる/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg3-Practitionerの麻薬施用者番号をまとめる/StructureDefinition-jp-practitioner.xlsx
@@ -1423,13 +1423,14 @@
     <t>Practitioner.qualification.identifier.system</t>
   </si>
   <si>
-    <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)] 詳細はCommentを参照の事</t>
+    <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)] [詳細](#Practitioner.qualification:narcoticPrescriptionLicenseNumber.identifier.system)を確認すること</t>
   </si>
   <si>
     <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)]</t>
   </si>
   <si>
-    <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)]。
+    <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)]。  
+都道府県毎のOIDを以下に示す。
 - urn:oid:1.2.392.100495.20.3.32.101(北海道)
 - urn:oid:1.2.392.100495.20.3.32.102(青森県)
 - urn:oid:1.2.392.100495.20.3.32.103(岩手県)
@@ -1590,6 +1591,9 @@
     <t>medicalRegistrationNumber</t>
   </si>
   <si>
+    <t>医籍登録番号</t>
+  </si>
+  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1600,9 +1604,6 @@
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.31</t>
-  </si>
-  <si>
-    <t>医籍登録番号</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1963,7 +1964,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="168.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -9249,7 +9250,7 @@
         <v>144</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>377</v>
+        <v>470</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>408</v>
@@ -9806,13 +9807,13 @@
         <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>435</v>
@@ -9822,7 +9823,7 @@
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>76</v>
@@ -9919,13 +9920,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>443</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">

--- a/jpcore-r4/feature/swg3-Practitionerの麻薬施用者番号をまとめる/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg3-Practitionerの麻薬施用者番号をまとめる/StructureDefinition-jp-practitioner.xlsx
@@ -1423,7 +1423,7 @@
     <t>Practitioner.qualification.identifier.system</t>
   </si>
   <si>
-    <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)] [詳細](#Practitioner.qualification:narcoticPrescriptionLicenseNumber.identifier.system)を確認すること</t>
+    <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)] Detail DescriptionsタグのPractitioner.qualification:narcoticPrescriptionLicenseNumber.identifier.systemの項目を確認すること</t>
   </si>
   <si>
     <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)]</t>
@@ -1964,7 +1964,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="168.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="186.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
